--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1614.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1614.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.15626178892917</v>
+        <v>0.6756153702735901</v>
       </c>
       <c r="B1">
-        <v>2.554875893841769</v>
+        <v>2.104029178619385</v>
       </c>
       <c r="C1">
-        <v>4.715092457272835</v>
+        <v>5.113800525665283</v>
       </c>
       <c r="D1">
-        <v>2.273631490577528</v>
+        <v>2.934109926223755</v>
       </c>
       <c r="E1">
-        <v>1.062691609159985</v>
+        <v>0.6591125130653381</v>
       </c>
     </row>
   </sheetData>
